--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>接口路径</t>
   </si>
@@ -100,57 +100,7 @@
     <t>更新课程信息，不管对象中属性是否为空都更新</t>
   </si>
   <si>
-    <t>/userMgr/getStudentsByCourseId</t>
-  </si>
-  <si>
-    <t>通过课程id获取当前课程下所有学生信息</t>
-  </si>
-  <si>
-    <t>{
-  status:0(fail)/1(success),
-  data:List&lt;User&gt;,
-  msg:''(error message)
-}</t>
-  </si>
-  <si>
-    <t>/userMgr/addStudent</t>
-  </si>
-  <si>
-    <t>添加一条学生信息</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>{
-  status:0(fail)/1(success),
-  data:int 影响记录条数,
-  msg:''(error message)
-}</t>
-  </si>
-  <si>
-    <t>/userMgr/batchUploadStudents</t>
-  </si>
-  <si>
-    <t>批量导入学生信息</t>
-  </si>
-  <si>
-    <t>{
-   待定
-}</t>
-  </si>
-  <si>
-    <t>{
-  status:0(fail)/1(success),
-  data:‘’,
-  msg:''(error message)
-}</t>
-  </si>
-  <si>
-    <t>doing</t>
-  </si>
-  <si>
-    <t>/taskMgr/saveCourse</t>
+    <t>/course/saveCourse</t>
   </si>
   <si>
     <t>保存课程信息</t>
@@ -171,6 +121,56 @@
 }</t>
   </si>
   <si>
+    <t>/userMgr/getStudentsByCourseId</t>
+  </si>
+  <si>
+    <t>通过课程id获取当前课程下所有学生信息</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;User&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/userMgr/addStudent</t>
+  </si>
+  <si>
+    <t>添加一条学生信息</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:int 影响记录条数,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/userMgr/batchUploadStudents</t>
+  </si>
+  <si>
+    <t>批量导入学生信息</t>
+  </si>
+  <si>
+    <t>{
+   待定
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:‘’,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
     <t>/taskMgr/getTaskDetailByTaskId</t>
   </si>
   <si>
@@ -185,6 +185,48 @@
     <t>{
   status:0(fail)/1(success),
   data:CourseTaskDetail,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/saveTask</t>
+  </si>
+  <si>
+    <t>保存课程详细信息，包括试题信息</t>
+  </si>
+  <si>
+    <t>CourseTaskDetail</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:int,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/getCourseTaskById</t>
+  </si>
+  <si>
+    <t>通过任务id获取任务信息，不包含任务下试题内容</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:CourseTasks,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/getCourseTasksByCourseId</t>
+  </si>
+  <si>
+    <t>通过课程id获取当前课程下所有任务信息</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;CourseTasks&gt;,
   msg:''(error message)
 }</t>
   </si>
@@ -1204,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1327,7 +1369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="67.5" spans="1:6">
+    <row r="7" ht="81" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1335,10 +1377,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1349,13 +1391,13 @@
     </row>
     <row r="8" ht="67.5" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>28</v>
@@ -1368,43 +1410,43 @@
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" ht="81" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:6">
@@ -1424,6 +1466,66 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>接口路径</t>
   </si>
@@ -227,6 +227,25 @@
     <t>{
   status:0(fail)/1(success),
   data:List&lt;CourseTasks&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/getStudentTaskSituation</t>
+  </si>
+  <si>
+    <t>通过课程id和任务id获取课程下所有学生指定任务的完成情况</t>
+  </si>
+  <si>
+    <t>{
+  courseId，
+  taskId
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;StudentTaskDetail&gt;,
   msg:''(error message)
 }</t>
   </si>
@@ -236,12 +255,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +273,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,7 +309,74 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,17 +390,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,51 +404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,45 +419,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,144 +435,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,37 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,24 +646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,7 +659,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,8 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +703,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,164 +741,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,10 +1258,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1526,6 +1538,26 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>接口路径</t>
   </si>
@@ -134,13 +134,17 @@
 }</t>
   </si>
   <si>
+    <t>2018/08/26
+modify by chenxianzhang</t>
+  </si>
+  <si>
     <t>/userMgr/addStudent</t>
   </si>
   <si>
     <t>添加一条学生信息</t>
   </si>
   <si>
-    <t>User</t>
+    <t>UserEditModel</t>
   </si>
   <si>
     <t>{
@@ -246,6 +250,19 @@
     <t>{
   status:0(fail)/1(success),
   data:List&lt;StudentTaskDetail&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/getCourseTaskSituation</t>
+  </si>
+  <si>
+    <t>通过课程id获取课程下所有任务的完成情况</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;CourseTaskSituation&gt;,
   msg:''(error message)
 }</t>
   </si>
@@ -255,12 +272,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +296,91 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,45 +393,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,41 +429,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,32 +443,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,198 +453,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -644,6 +674,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -659,7 +756,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,62 +779,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,138 +804,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -901,14 +950,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,308 +1316,350 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="29" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="29" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="98" customHeight="1" spans="1:6">
+    <row r="3" ht="98" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="67.5" spans="1:6">
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="67.5" spans="1:6">
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="67.5" spans="1:6">
+    <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="81" spans="1:6">
+    <row r="7" ht="81" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
-    <row r="8" ht="67.5" spans="1:6">
+    <row r="8" ht="67.5" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" ht="67.5" spans="1:6">
+    <row r="9" ht="67.5" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G9" s="3"/>
     </row>
-    <row r="10" ht="67.5" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" ht="67.5" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
-    <row r="12" ht="67.5" spans="1:6">
+    <row r="11" spans="7:7">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G12" s="3"/>
     </row>
-    <row r="13" ht="67.5" spans="1:6">
+    <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="67.5" spans="1:6">
+    <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="67.5" spans="1:6">
+    <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G15" s="3"/>
     </row>
-    <row r="16" ht="67.5" spans="1:6">
+    <row r="16" ht="67.5" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" ht="67.5" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>接口路径</t>
   </si>
@@ -263,6 +263,89 @@
     <t>{
   status:0(fail)/1(success),
   data:List&lt;CourseTaskSituation&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/randGroup</t>
+  </si>
+  <si>
+    <t>随机分组</t>
+  </si>
+  <si>
+    <t>{
+  courseId:,
+  memberCnt:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:true/false,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/appendStudent2Group</t>
+  </si>
+  <si>
+    <t>添加到已有分组</t>
+  </si>
+  <si>
+    <t>{
+  groupId:,
+  studentNo:
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/assignGroup</t>
+  </si>
+  <si>
+    <t>指定分组</t>
+  </si>
+  <si>
+    <t>AssignGroupModel</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:true,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/changeGroupLeader</t>
+  </si>
+  <si>
+    <t>更改组长</t>
+  </si>
+  <si>
+    <t>/groupMgr/relieveGroup</t>
+  </si>
+  <si>
+    <t>解散组</t>
+  </si>
+  <si>
+    <t>{
+  groupId:,
+  groupNo:
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/getGroupDetail</t>
+  </si>
+  <si>
+    <t>获取课程下所有组信息</t>
+  </si>
+  <si>
+    <t>{
+courseId
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;GroupDetail&gt;,
   msg:''(error message)
 }</t>
   </si>
@@ -1316,10 +1399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1660,6 +1743,131 @@
         <v>11</v>
       </c>
       <c r="G17" s="3"/>
+    </row>
+    <row r="18" ht="67.5" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" ht="67.5" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" ht="67.5" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" ht="67.5" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" ht="67.5" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" ht="67.5" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>接口路径</t>
   </si>
@@ -346,6 +346,19 @@
     <t>{
   status:0(fail)/1(success),
   data:List&lt;GroupDetail&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/getAllGradeInfo</t>
+  </si>
+  <si>
+    <t>获取课程下所有成绩信息</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;GradeDetail&gt;,
   msg:''(error message)
 }</t>
   </si>
@@ -1399,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1866,6 +1879,26 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>接口路径</t>
   </si>
@@ -121,6 +121,20 @@
 }</t>
   </si>
   <si>
+    <t>/course/updateFreedomGroup</t>
+  </si>
+  <si>
+    <t>更新课程为自由分组</t>
+  </si>
+  <si>
+    <t>{
+   id:
+}</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>/userMgr/getStudentsByCourseId</t>
   </si>
   <si>
@@ -138,6 +152,15 @@
 modify by chenxianzhang</t>
   </si>
   <si>
+    <t>/userMgr/getNoGroupStuList</t>
+  </si>
+  <si>
+    <t>根据课程id获取未分组学员</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>/userMgr/addStudent</t>
   </si>
   <si>
@@ -314,10 +337,46 @@
 }</t>
   </si>
   <si>
+    <t>有修改
+对象中增加leaderName及组长名称</t>
+  </si>
+  <si>
     <t>/groupMgr/changeGroupLeader</t>
   </si>
   <si>
     <t>更改组长</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  groupId:,
+  studentNo:
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>studentName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>有修改</t>
   </si>
   <si>
     <t>/groupMgr/relieveGroup</t>
@@ -359,6 +418,25 @@
     <t>{
   status:0(fail)/1(success),
   data:List&lt;GradeDetail&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/groupMgr/getGroupDetailByStudent</t>
+  </si>
+  <si>
+    <t>获取我的分组信息</t>
+  </si>
+  <si>
+    <t>{
+courseId，
+studentNo
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:GradeDetail,
   msg:''(error message)
 }</t>
   </si>
@@ -368,12 +446,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,9 +475,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.15"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,6 +511,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -434,14 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -450,33 +609,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,58 +631,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -561,6 +653,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,180 +834,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,17 +931,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -880,6 +961,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -888,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,137 +992,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,9 +1130,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,6 +1151,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1412,10 +1513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1435,40 +1536,40 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1477,19 +1578,19 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1498,19 +1599,19 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1519,19 +1620,19 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1540,19 +1641,19 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" ht="81" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1561,28 +1662,28 @@
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" ht="67.5" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1590,100 +1691,104 @@
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3"/>
     </row>
     <row r="10" ht="67.5" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="9" t="s">
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" ht="67.5" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" ht="67.5" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="1"/>
     </row>
     <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1692,40 +1797,40 @@
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" ht="67.5" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1734,19 +1839,19 @@
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" ht="67.5" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1755,19 +1860,19 @@
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" ht="67.5" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1776,40 +1881,40 @@
       <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" ht="67.5" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" ht="67.5" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1818,19 +1923,19 @@
       <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" ht="67.5" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1839,20 +1944,20 @@
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" ht="67.5" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>70</v>
+      <c r="C22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1860,46 +1965,115 @@
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" ht="67.5" spans="1:6">
+      <c r="G22" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="67.5" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="67.5" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" ht="67.5" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="67.5" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="67.5" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>接口路径</t>
   </si>
@@ -286,6 +286,41 @@
     <t>{
   status:0(fail)/1(success),
   data:List&lt;CourseTaskSituation&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/getMyTaskSituation</t>
+  </si>
+  <si>
+    <t>获取我的任务情况</t>
+  </si>
+  <si>
+    <t>{
+  courseId，
+  studentNo
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/2(success),
+  data:List&lt;StudentTaskSituation&gt;,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/taskMgr/submitTaskPaper</t>
+  </si>
+  <si>
+    <t>提交我的任务paper</t>
+  </si>
+  <si>
+    <t>StudentPaperAnswer</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/3(success),
+  data:,
   msg:''(error message)
 }</t>
   </si>
@@ -1513,10 +1548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1923,7 +1958,9 @@
       <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
       <c r="A21" s="1" t="s">
@@ -1936,7 +1973,7 @@
         <v>73</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1944,20 +1981,22 @@
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1965,9 +2004,7 @@
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" ht="67.5" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -1976,10 +2013,10 @@
       <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1988,63 +2025,66 @@
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" ht="67.5" spans="1:7">
       <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" ht="67.5" spans="1:6">
+      <c r="G24" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" ht="67.5" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="D25" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" ht="67.5" spans="1:6">
+      <c r="G25" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" ht="67.5" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -2052,27 +2092,68 @@
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" ht="67.5" spans="1:7">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="67.5" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="67.5" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="67.5" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>接口路径</t>
   </si>
@@ -444,7 +444,7 @@
 }</t>
   </si>
   <si>
-    <t>/groupMgr/getAllGradeInfo</t>
+    <t>/course/getAllGradeInfo</t>
   </si>
   <si>
     <t>获取课程下所有成绩信息</t>
@@ -471,7 +471,36 @@
   <si>
     <t>{
   status:0(fail)/1(success),
+  data:GroupDetail,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/course/getStuGradeInfo</t>
+  </si>
+  <si>
+    <t>获取我的成绩信息</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
   data:GradeDetail,
+  msg:''(error message)
+}</t>
+  </si>
+  <si>
+    <t>/login/register</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:,
   msg:''(error message)
 }</t>
   </si>
@@ -1548,10 +1577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2154,6 +2183,52 @@
         <v>11</v>
       </c>
       <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" ht="67.5" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>接口路径</t>
   </si>
@@ -219,7 +219,7 @@
     <t>/taskMgr/saveTask</t>
   </si>
   <si>
-    <t>保存课程详细信息，包括试题信息</t>
+    <t>保存或更新课程详细信息，包括试题信息</t>
   </si>
   <si>
     <t>CourseTaskDetail</t>
@@ -227,7 +227,9 @@
   <si>
     <t>{
   status:0(fail)/1(success),
-  data:int,
+  data:{
+   taskId:
+},
   msg:''(error message)
 }</t>
   </si>
@@ -383,6 +385,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">{
   groupId:,
   studentNo:
@@ -504,16 +513,22 @@
   msg:''(error message)
 }</t>
   </si>
+  <si>
+    <t>{
+   file:,
+   courseId:
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -552,6 +567,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -577,25 +674,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,58 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,21 +710,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -717,91 +732,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,42 +894,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -874,30 +913,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,30 +954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -974,6 +965,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,15 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1017,11 +1008,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,6 +1033,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,10 +1059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,133 +1071,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1863,7 +1878,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" ht="67.5" spans="1:7">
+    <row r="15" ht="94.5" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2229,6 +2244,29 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="67.5" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>接口路径</t>
   </si>
@@ -519,6 +519,17 @@
    courseId:
 }</t>
   </si>
+  <si>
+    <t>/groupMgr/checkCourseGrouped</t>
+  </si>
+  <si>
+    <t>确定课程是否分组完毕</t>
+  </si>
+  <si>
+    <t>{
+   courseId:
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -527,8 +538,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -568,6 +579,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -590,14 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -609,22 +627,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,24 +651,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,18 +682,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,6 +743,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -750,6 +767,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -780,66 +875,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -865,30 +900,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,30 +966,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1008,17 +995,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,11 +1024,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,10 +1070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,133 +1082,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1592,10 +1603,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2267,6 +2278,29 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" ht="67.5" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>接口路径</t>
   </si>
@@ -530,6 +530,13 @@
    courseId:
 }</t>
   </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:0(没有分组或未分完组)/1(只有一个分组)/&gt;1(有若干分组),
+  msg:''(error message)
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -537,9 +544,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -579,30 +586,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +623,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,15 +675,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +692,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,54 +728,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -743,25 +750,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,12 +834,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -797,30 +852,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -833,6 +864,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -840,90 +931,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,17 +972,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,22 +1005,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,15 +1044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,6 +1058,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1070,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,133 +1089,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,7 +1613,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2281,7 +2288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" ht="67.5" spans="1:7">
+    <row r="33" ht="81" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>115</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>接口路径</t>
   </si>
@@ -537,16 +537,35 @@
   msg:''(error message)
 }</t>
   </si>
+  <si>
+    <t>/gradeMgr/getMySchedule</t>
+  </si>
+  <si>
+    <t>获取我的待办任务</t>
+  </si>
+  <si>
+    <t>{
+   courseId:,
+   studentNo:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:List&lt;GradeRelate&gt;,
+  msg:''(error message)
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -585,8 +604,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,18 +651,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,7 +674,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,21 +712,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,29 +727,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -692,30 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,54 +769,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -805,132 +950,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,20 +991,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,6 +1032,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,32 +1069,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,10 +1096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,133 +1108,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1610,10 +1629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2308,6 +2327,29 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" ht="67.5" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>接口路径</t>
   </si>
@@ -325,6 +325,9 @@
   data:,
   msg:''(error message)
 }</t>
+  </si>
+  <si>
+    <t>new,had modify</t>
   </si>
   <si>
     <t>/groupMgr/randGroup</t>
@@ -562,10 +565,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -604,9 +607,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,53 +638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,7 +660,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +675,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +683,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,28 +743,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -769,55 +772,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,127 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,17 +994,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,21 +1020,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,17 +1051,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,6 +1082,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1096,10 +1099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,133 +1111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1631,8 +1634,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2063,21 +2066,21 @@
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -2089,13 +2092,13 @@
     </row>
     <row r="23" ht="67.5" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>25</v>
@@ -2110,16 +2113,16 @@
     </row>
     <row r="24" ht="67.5" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -2128,18 +2131,18 @@
         <v>11</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>25</v>
@@ -2151,21 +2154,21 @@
         <v>11</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -2177,16 +2180,16 @@
     </row>
     <row r="27" ht="67.5" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -2197,16 +2200,16 @@
     </row>
     <row r="28" ht="67.5" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -2217,16 +2220,16 @@
     </row>
     <row r="29" ht="67.5" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -2240,16 +2243,16 @@
     </row>
     <row r="30" ht="67.5" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -2263,16 +2266,16 @@
     </row>
     <row r="31" ht="67.5" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -2292,10 +2295,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -2309,16 +2312,16 @@
     </row>
     <row r="33" ht="81" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -2332,16 +2335,16 @@
     </row>
     <row r="34" ht="67.5" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>接口路径</t>
   </si>
@@ -305,7 +305,7 @@
   </si>
   <si>
     <t>{
-  status:0(fail)/2(success),
+  status:0(fail)/1(success),
   data:List&lt;StudentTaskSituation&gt;,
   msg:''(error message)
 }</t>
@@ -321,7 +321,7 @@
   </si>
   <si>
     <t>{
-  status:0(fail)/3(success),
+  status:0(fail)/1(success),
   data:,
   msg:''(error message)
 }</t>
@@ -511,13 +511,6 @@
   </si>
   <si>
     <t>{
-  status:0(fail)/1(success),
-  data:,
-  msg:''(error message)
-}</t>
-  </si>
-  <si>
-    <t>{
    file:,
    courseId:
 }</t>
@@ -558,6 +551,24 @@
   data:List&lt;GradeRelate&gt;,
   msg:''(error message)
 }</t>
+  </si>
+  <si>
+    <t>/taskMgr/deleteTask</t>
+  </si>
+  <si>
+    <t>删除指定任务，及与之关联的所有题目信息</t>
+  </si>
+  <si>
+    <t>{
+   courseId:,
+   taskId:
+}</t>
+  </si>
+  <si>
+    <t>/userMgr/deleteStudent</t>
+  </si>
+  <si>
+    <t>删除指定课程下的与指定学生的关联关系</t>
   </si>
 </sst>
 </file>
@@ -751,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +772,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,145 +1116,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,7 +1298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,10 +1649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2275,7 +2292,7 @@
         <v>111</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -2295,10 +2312,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -2312,16 +2329,16 @@
     </row>
     <row r="33" ht="81" spans="1:7">
       <c r="A33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -2335,24 +2352,70 @@
     </row>
     <row r="34" ht="67.5" spans="1:7">
       <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="67.5" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="B35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="67.5" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>接口路径</t>
   </si>
@@ -569,6 +569,25 @@
   </si>
   <si>
     <t>删除指定课程下的与指定学生的关联关系</t>
+  </si>
+  <si>
+    <t>/fileMgr/uploadOneFile</t>
+  </si>
+  <si>
+    <t>上传文件，并返回文件路径</t>
+  </si>
+  <si>
+    <t>{
+   trunkDir:,
+   subDir:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:filePath,
+  msg:''(error message)
+}</t>
   </si>
 </sst>
 </file>
@@ -618,98 +637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,6 +667,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,6 +737,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -789,6 +808,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -807,6 +856,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -861,42 +958,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -904,48 +965,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,17 +1030,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,15 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1061,30 +1080,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,6 +1103,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1116,10 +1135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,133 +1147,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1649,10 +1668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2416,6 +2435,29 @@
         <v>11</v>
       </c>
       <c r="G36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="67.5" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>接口路径</t>
   </si>
@@ -589,6 +589,15 @@
   msg:''(error message)
 }</t>
   </si>
+  <si>
+    <t>/gradeMgr/updateSubjectScore</t>
+  </si>
+  <si>
+    <t>更新学生主观题分数</t>
+  </si>
+  <si>
+    <t>SubjectGradeModel</t>
+  </si>
 </sst>
 </file>
 
@@ -596,9 +605,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1668,10 +1677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2458,6 +2467,29 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="67.5" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>接口路径</t>
   </si>
@@ -598,6 +598,25 @@
   <si>
     <t>SubjectGradeModel</t>
   </si>
+  <si>
+    <t>/gradeMgr/getSubjectGradePerson</t>
+  </si>
+  <si>
+    <t>获取学生课程任务的主观题评分人信息</t>
+  </si>
+  <si>
+    <t>{
+   studentNo:,
+   taskId:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:User,
+  msg:''(error message)
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -605,9 +624,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -817,187 +836,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,145 +1163,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1677,10 +1696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2490,6 +2509,29 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" ht="67.5" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
   <si>
     <t>接口路径</t>
   </si>
@@ -617,6 +617,19 @@
   msg:''(error message)
 }</t>
   </si>
+  <si>
+    <t>/course/exportCourseGrade</t>
+  </si>
+  <si>
+    <t>下载课程成绩接口</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:file,
+  msg:''(error message)
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -624,9 +637,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -662,13 +675,6 @@
       <color theme="1" tint="0.15"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,13 +732,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -774,13 +773,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -788,7 +780,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,9 +815,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,6 +849,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -854,169 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,10 +1176,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,133 +1188,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,7 +1709,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -2532,6 +2545,29 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="67.5" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>接口路径</t>
   </si>
@@ -630,16 +630,28 @@
   msg:''(error message)
 }</t>
   </si>
+  <si>
+    <t>/course/exportStuGrade</t>
+  </si>
+  <si>
+    <t>下载学生课程成绩接口</t>
+  </si>
+  <si>
+    <t>{
+   courseId:，
+   studentNo:
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -678,9 +690,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,6 +715,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,14 +743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -732,9 +750,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,17 +804,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,51 +818,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,187 +861,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,60 +1083,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1140,7 +1098,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,8 +1121,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,10 +1188,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,133 +1200,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1709,10 +1721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2568,6 +2580,29 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" ht="67.5" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>接口路径</t>
   </si>
@@ -642,16 +642,35 @@
    studentNo:
 }</t>
   </si>
+  <si>
+    <t>/taskMgr/getStuTaskDetail</t>
+  </si>
+  <si>
+    <t>获取学生任务详情</t>
+  </si>
+  <si>
+    <t>{
+   taskId:，
+   studentNo:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:0(fail)/1(success),
+  data:CourseTaskDetail(其中试题中的分数和答案为学生所得分数和所写答案),
+  msg:''(error message)
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -691,7 +710,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,61 +839,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,60 +852,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -861,6 +880,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -873,6 +1018,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -880,168 +1061,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,68 +1104,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1140,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1188,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1200,133 +1219,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,10 +1740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2603,6 +2622,29 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" ht="81" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>接口路径</t>
   </si>
@@ -661,16 +661,27 @@
   msg:''(error message)
 }</t>
   </si>
+  <si>
+    <t>/taskMgr/deleteQuestions</t>
+  </si>
+  <si>
+    <t>删除试题信息</t>
+  </si>
+  <si>
+    <t>{
+   ids:多个以逗号隔开
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -710,7 +721,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,13 +805,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -740,30 +813,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +842,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -792,62 +858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,187 +891,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,11 +1113,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,17 +1167,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,41 +1210,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1207,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,133 +1230,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,10 +1751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2645,6 +2656,29 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" ht="67.5" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
         <v>36</v>
       </c>
     </row>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="已存在接口" sheetId="1" r:id="rId1"/>
+    <sheet name="新增接口" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>接口路径</t>
   </si>
@@ -672,6 +672,101 @@
    ids:多个以逗号隔开
 }</t>
   </si>
+  <si>
+    <t>用户管理模块</t>
+  </si>
+  <si>
+    <t>userMgr/getUserByRole</t>
+  </si>
+  <si>
+    <t>根据角色获取不同角色下的所有用户</t>
+  </si>
+  <si>
+    <t>{
+  role:,     #角色
+  nameOrNo,  #查询条件，名称或者学号或教工号，模糊查询
+  pageSize,
+  currPage
+}</t>
+  </si>
+  <si>
+    <t>{
+status:,
+data:{
+totalCount,
+pageDate:User[]
+},
+msg:
+}</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>userMgr/addUser</t>
+  </si>
+  <si>
+    <t>添加用户信息</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:int,
+  msg:
+}</t>
+  </si>
+  <si>
+    <t>userMgr/updateUser</t>
+  </si>
+  <si>
+    <t>更新用户信息</t>
+  </si>
+  <si>
+    <t>userMgr/resetPwd</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>{
+serialNo:  #学号或教工号
+}</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>userMgr/deleteUser</t>
+  </si>
+  <si>
+    <t>删除用户信息</t>
+  </si>
+  <si>
+    <t>{
+serialNo:,
+role:,
+levelPwd:
+}</t>
+  </si>
+  <si>
+    <t>course/getCourseByUser</t>
+  </si>
+  <si>
+    <t>根据用户查询与之关联的课程信息</t>
+  </si>
+  <si>
+    <t>{
+serialNo:,
+role:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:Course[],
+  msg:
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -679,9 +774,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -720,21 +815,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -750,52 +830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -806,9 +840,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,6 +863,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -843,7 +898,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,8 +943,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,6 +986,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -909,132 +1160,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1042,36 +1167,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,41 +1208,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,17 +1228,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,6 +1264,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1218,10 +1313,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,7 +1325,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,135 +1334,129 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1375,6 +1464,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1753,8 +1854,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1768,592 +1869,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="67.5" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" ht="81" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" ht="67.5" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" ht="67.5" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" ht="67.5" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" ht="94.5" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" ht="67.5" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" ht="67.5" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" ht="67.5" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" ht="67.5" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" ht="67.5" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" ht="67.5" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" ht="67.5" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" ht="67.5" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
@@ -2361,22 +2462,22 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
@@ -2384,22 +2485,22 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
@@ -2407,22 +2508,22 @@
       </c>
     </row>
     <row r="32" ht="67.5" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
@@ -2430,22 +2531,22 @@
       </c>
     </row>
     <row r="33" ht="81" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
@@ -2453,22 +2554,22 @@
       </c>
     </row>
     <row r="34" ht="67.5" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
@@ -2476,22 +2577,22 @@
       </c>
     </row>
     <row r="35" ht="67.5" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
@@ -2499,22 +2600,22 @@
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
@@ -2522,22 +2623,22 @@
       </c>
     </row>
     <row r="37" ht="67.5" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
@@ -2545,22 +2646,22 @@
       </c>
     </row>
     <row r="38" ht="67.5" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
@@ -2568,22 +2669,22 @@
       </c>
     </row>
     <row r="39" ht="67.5" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
@@ -2591,22 +2692,22 @@
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -2614,22 +2715,22 @@
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
@@ -2637,22 +2738,22 @@
       </c>
     </row>
     <row r="42" ht="81" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
@@ -2660,22 +2761,22 @@
       </c>
     </row>
     <row r="43" ht="67.5" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
@@ -2692,14 +2793,157 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="96" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" ht="70" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" ht="87" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" ht="75" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" ht="73" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" ht="85" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="已存在接口" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>接口路径</t>
   </si>
@@ -767,16 +767,58 @@
   msg:
 }</t>
   </si>
+  <si>
+    <t>新增功能接口</t>
+  </si>
+  <si>
+    <t>gradeMgr/getScheduleByStudent</t>
+  </si>
+  <si>
+    <t>获取指定学生在指定课程中的所有待办信息</t>
+  </si>
+  <si>
+    <t>{
+studentNo:,
+courseId:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:Schedule[],
+  msg:
+}</t>
+  </si>
+  <si>
+    <t>gradeMgr/handOverSchedule</t>
+  </si>
+  <si>
+    <t>移交待办</t>
+  </si>
+  <si>
+    <t>{
+courseId:,
+originStudentNo:,
+dstStudentNo:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:success,
+  msg:
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -815,6 +857,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -830,6 +887,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -840,9 +943,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,27 +960,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,32 +986,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,22 +1000,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -986,25 +1028,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,36 +1190,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1125,48 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,11 +1250,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,6 +1300,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,47 +1347,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1313,10 +1355,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,137 +1367,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,6 +1506,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1869,13 +1917,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1896,565 +1944,565 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="67.5" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="81" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" ht="67.5" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="67.5" spans="1:7">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="5"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" ht="67.5" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" ht="94.5" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5"/>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" ht="67.5" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" ht="67.5" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5"/>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" ht="67.5" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" ht="67.5" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5"/>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" ht="67.5" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="5"/>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" ht="67.5" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" ht="67.5" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" ht="67.5" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:7">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
@@ -2462,22 +2510,22 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
@@ -2485,22 +2533,22 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
@@ -2508,22 +2556,22 @@
       </c>
     </row>
     <row r="32" ht="67.5" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
@@ -2531,22 +2579,22 @@
       </c>
     </row>
     <row r="33" ht="81" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
@@ -2554,22 +2602,22 @@
       </c>
     </row>
     <row r="34" ht="67.5" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
@@ -2577,22 +2625,22 @@
       </c>
     </row>
     <row r="35" ht="67.5" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
@@ -2600,22 +2648,22 @@
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:7">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
@@ -2623,22 +2671,22 @@
       </c>
     </row>
     <row r="37" ht="67.5" spans="1:7">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
@@ -2646,22 +2694,22 @@
       </c>
     </row>
     <row r="38" ht="67.5" spans="1:7">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
@@ -2669,22 +2717,22 @@
       </c>
     </row>
     <row r="39" ht="67.5" spans="1:7">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
@@ -2692,22 +2740,22 @@
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -2715,22 +2763,22 @@
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:7">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
@@ -2738,22 +2786,22 @@
       </c>
     </row>
     <row r="42" ht="81" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
@@ -2761,22 +2809,22 @@
       </c>
     </row>
     <row r="43" ht="67.5" spans="1:7">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
@@ -2795,15 +2843,15 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="46.75" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
@@ -2937,12 +2985,51 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="4"/>
+    <row r="8" spans="5:5">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="67.5" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>接口路径</t>
   </si>
@@ -809,16 +809,40 @@
   msg:
 }</t>
   </si>
+  <si>
+    <t>taskMgr/getTaskSituationList</t>
+  </si>
+  <si>
+    <t>获取指定任务下所有学生的状态及评分人信息</t>
+  </si>
+  <si>
+    <t>{
+taskId:,
+courseId:,
+pageSize:,
+currPage:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:{   
+     totalCount:,
+     pageData:StudentTaskDetail[]
+  },
+  msg:
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1497,7 +1521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,9 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1917,13 +1938,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1944,565 +1965,565 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="67.5" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" ht="81" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="67.5" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="67.5" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="67.5" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" ht="94.5" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" ht="67.5" spans="1:7">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7"/>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" ht="67.5" spans="1:7">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" ht="67.5" spans="1:7">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" ht="67.5" spans="1:7">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7"/>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" ht="67.5" spans="1:7">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7"/>
+      <c r="E22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" ht="67.5" spans="1:7">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7"/>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" ht="67.5" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7"/>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" ht="67.5" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="1:6">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:7">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
@@ -2510,22 +2531,22 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:7">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
@@ -2533,22 +2554,22 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:7">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
@@ -2556,22 +2577,22 @@
       </c>
     </row>
     <row r="32" ht="67.5" spans="1:7">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
@@ -2579,22 +2600,22 @@
       </c>
     </row>
     <row r="33" ht="81" spans="1:7">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
@@ -2602,22 +2623,22 @@
       </c>
     </row>
     <row r="34" ht="67.5" spans="1:7">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
@@ -2625,22 +2646,22 @@
       </c>
     </row>
     <row r="35" ht="67.5" spans="1:7">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
@@ -2648,22 +2669,22 @@
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:7">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
@@ -2671,22 +2692,22 @@
       </c>
     </row>
     <row r="37" ht="67.5" spans="1:7">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
@@ -2694,22 +2715,22 @@
       </c>
     </row>
     <row r="38" ht="67.5" spans="1:7">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
@@ -2717,22 +2738,22 @@
       </c>
     </row>
     <row r="39" ht="67.5" spans="1:7">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
@@ -2740,22 +2761,22 @@
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:7">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -2763,22 +2784,22 @@
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:7">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
@@ -2786,22 +2807,22 @@
       </c>
     </row>
     <row r="42" ht="81" spans="1:7">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
@@ -2809,22 +2830,22 @@
       </c>
     </row>
     <row r="43" ht="67.5" spans="1:7">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
@@ -2841,10 +2862,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2853,7 +2874,7 @@
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="46.75" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2989,16 +3010,16 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="67.5" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3009,27 +3030,45 @@
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>180</v>
       </c>
       <c r="F10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" ht="135" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>接口路径</t>
   </si>
@@ -833,16 +833,29 @@
   msg:
 }</t>
   </si>
+  <si>
+    <t>gradeMgr/updateSubjectScore</t>
+  </si>
+  <si>
+    <t>修改该接口，重新评分时，添加参数teacherNo，以及每个主观题增加teacherScore字段</t>
+  </si>
+  <si>
+    <t>taskMgr/getStuTaskDetail</t>
+  </si>
+  <si>
+    <t>修改该接口，返回值增加
+主观题重新审阅后教师所评得分teacherScore，以及增加主观题评分人对象markUser</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -882,7 +895,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,7 +903,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,6 +919,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,70 +947,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,10 +968,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,6 +1013,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1052,187 +1065,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,60 +1287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1343,7 +1302,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,8 +1325,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,10 +1392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,133 +1404,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2862,10 +2875,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3047,15 +3060,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" ht="135" spans="1:6">
+    <row r="11" ht="108" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3063,12 +3076,30 @@
       </c>
       <c r="F11" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>接口路径</t>
   </si>
@@ -845,6 +845,28 @@
   <si>
     <t>修改该接口，返回值增加
 主观题重新审阅后教师所评得分teacherScore，以及增加主观题评分人对象markUser</t>
+  </si>
+  <si>
+    <t>统计模块</t>
+  </si>
+  <si>
+    <t>stat/statAllGrade</t>
+  </si>
+  <si>
+    <t>统计课程所有成绩</t>
+  </si>
+  <si>
+    <t>{
+courseId:,
+sort:'asc'/'desc'
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:StatAllGradeModel,
+  msg:
+}</t>
   </si>
 </sst>
 </file>
@@ -2875,10 +2897,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3094,6 +3116,23 @@
       </c>
       <c r="C13" s="5" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:5">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>接口路径</t>
   </si>
@@ -868,16 +868,82 @@
   msg:
 }</t>
   </si>
+  <si>
+    <t>stat/statTaskSubmitReview</t>
+  </si>
+  <si>
+    <t>任务提交/评阅统计</t>
+  </si>
+  <si>
+    <t>{
+courseId:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:CourseTaskStatModel[],
+  msg:
+}</t>
+  </si>
+  <si>
+    <t>stat/statQuestionTypeCnt</t>
+  </si>
+  <si>
+    <t>题型数目统计</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:QuestionTypeStatModel[],
+  msg:
+}</t>
+  </si>
+  <si>
+    <t>stat/statStudentTaskScore</t>
+  </si>
+  <si>
+    <t>学生任务得分统计图</t>
+  </si>
+  <si>
+    <t>{
+courseId:,
+studentNo:
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:StudentTaskScoreStat[],
+  msg:
+}</t>
+  </si>
+  <si>
+    <t>待完成</t>
+  </si>
+  <si>
+    <t>stat/statStuSynthesizeInfo</t>
+  </si>
+  <si>
+    <t>学生综合统计（综合得分/排名/得分率统计）</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:StuCourseSynthesizeStat,
+  msg:
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -917,7 +983,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +991,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,13 +1007,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,6 +1028,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -977,44 +1044,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,9 +1068,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1044,17 +1090,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,7 +1153,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,19 +1279,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,151 +1321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,6 +1375,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1324,7 +1444,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,62 +1467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,10 +1480,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,137 +1492,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,6 +1637,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1973,13 +2042,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -2000,565 +2069,565 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="67.5" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="81" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" ht="67.5" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="67.5" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" ht="67.5" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" ht="94.5" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" ht="67.5" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" ht="67.5" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" ht="67.5" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" ht="67.5" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" ht="67.5" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" ht="67.5" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" ht="67.5" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="6"/>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" ht="67.5" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:7">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
@@ -2566,22 +2635,22 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:7">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
@@ -2589,22 +2658,22 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
@@ -2612,22 +2681,22 @@
       </c>
     </row>
     <row r="32" ht="67.5" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
@@ -2635,22 +2704,22 @@
       </c>
     </row>
     <row r="33" ht="81" spans="1:7">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
@@ -2658,22 +2727,22 @@
       </c>
     </row>
     <row r="34" ht="67.5" spans="1:7">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
@@ -2681,22 +2750,22 @@
       </c>
     </row>
     <row r="35" ht="67.5" spans="1:7">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
@@ -2704,22 +2773,22 @@
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
@@ -2727,22 +2796,22 @@
       </c>
     </row>
     <row r="37" ht="67.5" spans="1:7">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
@@ -2750,22 +2819,22 @@
       </c>
     </row>
     <row r="38" ht="67.5" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
@@ -2773,22 +2842,22 @@
       </c>
     </row>
     <row r="39" ht="67.5" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
@@ -2796,22 +2865,22 @@
       </c>
     </row>
     <row r="40" ht="67.5" spans="1:7">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -2819,22 +2888,22 @@
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:7">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
@@ -2842,22 +2911,22 @@
       </c>
     </row>
     <row r="42" ht="81" spans="1:7">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
@@ -2865,22 +2934,22 @@
       </c>
     </row>
     <row r="43" ht="67.5" spans="1:7">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
@@ -2897,10 +2966,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3105,7 +3174,7 @@
       <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3114,12 +3183,12 @@
       <c r="B13" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B15" t="s">
@@ -3128,17 +3197,84 @@
       <c r="C15" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>193</v>
       </c>
     </row>
+    <row r="16" ht="67.5" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/coursemgr/科研项目管理系统后端接口文档.xlsx
+++ b/coursemgr/科研项目管理系统后端接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>接口路径</t>
   </si>
@@ -919,9 +919,6 @@
 }</t>
   </si>
   <si>
-    <t>待完成</t>
-  </si>
-  <si>
     <t>stat/statStuSynthesizeInfo</t>
   </si>
   <si>
@@ -932,6 +929,41 @@
   status:,
   data:StuCourseSynthesizeStat,
   msg:
+}</t>
+  </si>
+  <si>
+    <t>课程管理模块</t>
+  </si>
+  <si>
+    <t>course/getAllCourse</t>
+  </si>
+  <si>
+    <t>分页获取课程信息</t>
+  </si>
+  <si>
+    <t>{
+pageSize:,
+currPage:,
+courseName:   // 可传参数
+}</t>
+  </si>
+  <si>
+    <t>{
+  status:,
+  data:pageModel,
+  msg:
+}</t>
+  </si>
+  <si>
+    <t>course/deleteCourse</t>
+  </si>
+  <si>
+    <t>根据二级密码删除课程信息</t>
+  </si>
+  <si>
+    <t>{
+courseId:,
+levelPwd:
 }</t>
   </si>
 </sst>
@@ -940,10 +972,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -991,48 +1023,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1050,25 +1043,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,14 +1097,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,15 +1126,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,13 +1185,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1215,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,84 +1317,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1279,31 +1329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,13 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,17 +1407,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,6 +1445,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,17 +1479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,39 +1504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1480,10 +1512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,133 +1524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2966,10 +2998,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3188,7 +3220,7 @@
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B15" t="s">
@@ -3205,14 +3237,14 @@
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:5">
-      <c r="A16" s="5"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3220,61 +3252,88 @@
       </c>
     </row>
     <row r="17" ht="67.5" spans="1:5">
-      <c r="A17" s="5"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" ht="67.5" spans="1:6">
-      <c r="A18" s="5"/>
+    <row r="18" ht="67.5" spans="1:5">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>201</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="19" ht="67.5" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" ht="67.5" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s">
+      <c r="C19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="4" t="s">
+    </row>
+    <row r="21" ht="67.5" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F19" t="s">
-        <v>205</v>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
